--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H2">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N2">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O2">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P2">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q2">
-        <v>3.894203876536786</v>
+        <v>5.052036119034666</v>
       </c>
       <c r="R2">
-        <v>3.894203876536786</v>
+        <v>45.46832507131199</v>
       </c>
       <c r="S2">
-        <v>0.000160430355735151</v>
+        <v>0.000142341776066457</v>
       </c>
       <c r="T2">
-        <v>0.000160430355735151</v>
+        <v>0.000142341776066457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H3">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N3">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q3">
-        <v>15.74536384081311</v>
+        <v>20.55212418465067</v>
       </c>
       <c r="R3">
-        <v>15.74536384081311</v>
+        <v>184.969117661856</v>
       </c>
       <c r="S3">
-        <v>0.000648665144981443</v>
+        <v>0.0005790587773827207</v>
       </c>
       <c r="T3">
-        <v>0.000648665144981443</v>
+        <v>0.0005790587773827208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H4">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N4">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q4">
-        <v>0.05616617950687122</v>
+        <v>0.072991011456</v>
       </c>
       <c r="R4">
-        <v>0.05616617950687122</v>
+        <v>0.656919103104</v>
       </c>
       <c r="S4">
-        <v>2.313890192771622E-06</v>
+        <v>2.056531260413749E-06</v>
       </c>
       <c r="T4">
-        <v>2.313890192771622E-06</v>
+        <v>2.056531260413749E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H5">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N5">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q5">
-        <v>0.06959062752301982</v>
+        <v>0.1314708985333333</v>
       </c>
       <c r="R5">
-        <v>0.06959062752301982</v>
+        <v>1.1832380868</v>
       </c>
       <c r="S5">
-        <v>2.866940068705209E-06</v>
+        <v>3.704209700278907E-06</v>
       </c>
       <c r="T5">
-        <v>2.866940068705209E-06</v>
+        <v>3.704209700278908E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H6">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I6">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J6">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N6">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q6">
-        <v>1.713820064211513</v>
+        <v>2.360289875562666</v>
       </c>
       <c r="R6">
-        <v>1.713820064211513</v>
+        <v>21.242608880064</v>
       </c>
       <c r="S6">
-        <v>7.060461426380461E-05</v>
+        <v>6.650147485158177E-05</v>
       </c>
       <c r="T6">
-        <v>7.060461426380461E-05</v>
+        <v>6.650147485158178E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H7">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N7">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O7">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P7">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q7">
-        <v>1346.966614110312</v>
+        <v>4.349075223364444</v>
       </c>
       <c r="R7">
-        <v>1346.966614110312</v>
+        <v>39.14167701028</v>
       </c>
       <c r="S7">
-        <v>0.0554912736765255</v>
+        <v>0.0001225357612167282</v>
       </c>
       <c r="T7">
-        <v>0.0554912736765255</v>
+        <v>0.0001225357612167282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H8">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N8">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q8">
-        <v>5446.1656587575</v>
+        <v>17.69241786340444</v>
       </c>
       <c r="R8">
-        <v>5446.1656587575</v>
+        <v>159.23176077064</v>
       </c>
       <c r="S8">
-        <v>0.2243668594989072</v>
+        <v>0.0004984861790869587</v>
       </c>
       <c r="T8">
-        <v>0.2243668594989072</v>
+        <v>0.0004984861790869587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H9">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N9">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q9">
-        <v>19.42732610732321</v>
+        <v>0.06283474464</v>
       </c>
       <c r="R9">
-        <v>19.42732610732321</v>
+        <v>0.56551270176</v>
       </c>
       <c r="S9">
-        <v>0.0008003517374011856</v>
+        <v>1.770377119245318E-06</v>
       </c>
       <c r="T9">
-        <v>0.0008003517374011856</v>
+        <v>1.770377119245318E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H10">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J10">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N10">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q10">
-        <v>24.07070993207884</v>
+        <v>0.1131775018888889</v>
       </c>
       <c r="R10">
-        <v>24.07070993207884</v>
+        <v>1.018597517</v>
       </c>
       <c r="S10">
-        <v>0.0009916462208022154</v>
+        <v>3.188790865712869E-06</v>
       </c>
       <c r="T10">
-        <v>0.0009916462208022154</v>
+        <v>3.188790865712869E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H11">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J11">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N11">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q11">
-        <v>592.7934135637165</v>
+        <v>2.031869522684444</v>
       </c>
       <c r="R11">
-        <v>592.7934135637165</v>
+        <v>18.28682570416</v>
       </c>
       <c r="S11">
-        <v>0.02442143791918214</v>
+        <v>5.724818860746221E-05</v>
       </c>
       <c r="T11">
-        <v>0.02442143791918214</v>
+        <v>5.724818860746222E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H12">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I12">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J12">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N12">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O12">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P12">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q12">
-        <v>3049.961572275307</v>
+        <v>1538.017601552663</v>
       </c>
       <c r="R12">
-        <v>3049.961572275307</v>
+        <v>13842.15841397397</v>
       </c>
       <c r="S12">
-        <v>0.1256499237152988</v>
+        <v>0.04333384636773144</v>
       </c>
       <c r="T12">
-        <v>0.1256499237152988</v>
+        <v>0.04333384636773144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H13">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I13">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J13">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N13">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O13">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P13">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q13">
-        <v>12331.85425789288</v>
+        <v>6256.789935882087</v>
       </c>
       <c r="R13">
-        <v>12331.85425789288</v>
+        <v>56311.10942293878</v>
       </c>
       <c r="S13">
-        <v>0.5080380555799857</v>
+        <v>0.1762858718671165</v>
       </c>
       <c r="T13">
-        <v>0.5080380555799857</v>
+        <v>0.1762858718671165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H14">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I14">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J14">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N14">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O14">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P14">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q14">
-        <v>43.98965606028302</v>
+        <v>22.221032813184</v>
       </c>
       <c r="R14">
-        <v>43.98965606028302</v>
+        <v>199.989295318656</v>
       </c>
       <c r="S14">
-        <v>0.00181225133407611</v>
+        <v>0.0006260804954941625</v>
       </c>
       <c r="T14">
-        <v>0.00181225133407611</v>
+        <v>0.0006260804954941626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H15">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I15">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J15">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N15">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O15">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P15">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q15">
-        <v>54.50375647114115</v>
+        <v>40.02436864502222</v>
       </c>
       <c r="R15">
-        <v>54.50375647114115</v>
+        <v>360.2193178052</v>
       </c>
       <c r="S15">
-        <v>0.002245402992958737</v>
+        <v>0.00112769180279726</v>
       </c>
       <c r="T15">
-        <v>0.002245402992958737</v>
+        <v>0.00112769180279726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H16">
+        <v>259.276496</v>
+      </c>
+      <c r="I16">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J16">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.314158666666666</v>
+      </c>
+      <c r="N16">
+        <v>24.942476</v>
+      </c>
+      <c r="O16">
+        <v>0.08379059397414486</v>
+      </c>
+      <c r="P16">
+        <v>0.08379059397414489</v>
+      </c>
+      <c r="Q16">
+        <v>718.5553087604551</v>
+      </c>
+      <c r="R16">
+        <v>6466.997778844096</v>
+      </c>
+      <c r="S16">
+        <v>0.02024538947090665</v>
+      </c>
+      <c r="T16">
+        <v>0.02024538947090666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>270.67202</v>
+      </c>
+      <c r="H17">
+        <v>812.01606</v>
+      </c>
+      <c r="I17">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J17">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.79587766666667</v>
+      </c>
+      <c r="N17">
+        <v>53.38763299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1793479316144739</v>
+      </c>
+      <c r="P17">
+        <v>0.179347931614474</v>
+      </c>
+      <c r="Q17">
+        <v>4816.846155709553</v>
+      </c>
+      <c r="R17">
+        <v>43351.61540138598</v>
+      </c>
+      <c r="S17">
+        <v>0.1357152681983584</v>
+      </c>
+      <c r="T17">
+        <v>0.1357152681983584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>270.67202</v>
+      </c>
+      <c r="H18">
+        <v>812.01606</v>
+      </c>
+      <c r="I18">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J18">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>72.39518466666667</v>
+      </c>
+      <c r="N18">
+        <v>217.185554</v>
+      </c>
+      <c r="O18">
+        <v>0.7296030503252249</v>
+      </c>
+      <c r="P18">
+        <v>0.7296030503252251</v>
+      </c>
+      <c r="Q18">
+        <v>19595.35087199969</v>
+      </c>
+      <c r="R18">
+        <v>176358.1578479972</v>
+      </c>
+      <c r="S18">
+        <v>0.5521015646061522</v>
+      </c>
+      <c r="T18">
+        <v>0.5521015646061523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>270.67202</v>
+      </c>
+      <c r="H19">
+        <v>812.01606</v>
+      </c>
+      <c r="I19">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J19">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.257112</v>
+      </c>
+      <c r="N19">
+        <v>0.771336</v>
+      </c>
+      <c r="O19">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="P19">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="Q19">
+        <v>69.59302440624</v>
+      </c>
+      <c r="R19">
+        <v>626.3372196561601</v>
+      </c>
+      <c r="S19">
+        <v>0.001960792532440031</v>
+      </c>
+      <c r="T19">
+        <v>0.001960792532440032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>270.67202</v>
+      </c>
+      <c r="H20">
+        <v>812.01606</v>
+      </c>
+      <c r="I20">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J20">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4631083333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.389325</v>
+      </c>
+      <c r="O20">
+        <v>0.004667233797203165</v>
+      </c>
+      <c r="P20">
+        <v>0.004667233797203166</v>
+      </c>
+      <c r="Q20">
+        <v>125.3504680621667</v>
+      </c>
+      <c r="R20">
+        <v>1128.1542125595</v>
+      </c>
+      <c r="S20">
+        <v>0.003531765774101359</v>
+      </c>
+      <c r="T20">
+        <v>0.003531765774101359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>173.272925664885</v>
-      </c>
-      <c r="H16">
-        <v>173.272925664885</v>
-      </c>
-      <c r="I16">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="J16">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.74658333644318</v>
-      </c>
-      <c r="N16">
-        <v>7.74658333644318</v>
-      </c>
-      <c r="O16">
-        <v>0.07978995891306642</v>
-      </c>
-      <c r="P16">
-        <v>0.07978995891306642</v>
-      </c>
-      <c r="Q16">
-        <v>1342.273158612356</v>
-      </c>
-      <c r="R16">
-        <v>1342.273158612356</v>
-      </c>
-      <c r="S16">
-        <v>0.05529791637962048</v>
-      </c>
-      <c r="T16">
-        <v>0.05529791637962048</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>270.67202</v>
+      </c>
+      <c r="H21">
+        <v>812.01606</v>
+      </c>
+      <c r="I21">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J21">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.314158666666666</v>
+      </c>
+      <c r="N21">
+        <v>24.942476</v>
+      </c>
+      <c r="O21">
+        <v>0.08379059397414486</v>
+      </c>
+      <c r="P21">
+        <v>0.08379059397414489</v>
+      </c>
+      <c r="Q21">
+        <v>2250.410120907173</v>
+      </c>
+      <c r="R21">
+        <v>20253.69108816456</v>
+      </c>
+      <c r="S21">
+        <v>0.06340559844395269</v>
+      </c>
+      <c r="T21">
+        <v>0.0634055984439527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.203068</v>
+      </c>
+      <c r="I22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.79587766666667</v>
+      </c>
+      <c r="N22">
+        <v>53.38763299999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1793479316144739</v>
+      </c>
+      <c r="P22">
+        <v>0.179347931614474</v>
+      </c>
+      <c r="Q22">
+        <v>1.204591095338222</v>
+      </c>
+      <c r="R22">
+        <v>10.841319858044</v>
+      </c>
+      <c r="S22">
+        <v>3.393951110093098E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.393951110093099E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.203068</v>
+      </c>
+      <c r="I23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>72.39518466666667</v>
+      </c>
+      <c r="N23">
+        <v>217.185554</v>
+      </c>
+      <c r="O23">
+        <v>0.7296030503252249</v>
+      </c>
+      <c r="P23">
+        <v>0.7296030503252251</v>
+      </c>
+      <c r="Q23">
+        <v>4.900381786630223</v>
+      </c>
+      <c r="R23">
+        <v>44.103436079672</v>
+      </c>
+      <c r="S23">
+        <v>0.0001380688954864293</v>
+      </c>
+      <c r="T23">
+        <v>0.0001380688954864294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.203068</v>
+      </c>
+      <c r="I24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.257112</v>
+      </c>
+      <c r="N24">
+        <v>0.771336</v>
+      </c>
+      <c r="O24">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="P24">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="Q24">
+        <v>0.017403739872</v>
+      </c>
+      <c r="R24">
+        <v>0.156633658848</v>
+      </c>
+      <c r="S24">
+        <v>4.903526390568337E-07</v>
+      </c>
+      <c r="T24">
+        <v>4.903526390568338E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.203068</v>
+      </c>
+      <c r="I25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4631083333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.389325</v>
+      </c>
+      <c r="O25">
+        <v>0.004667233797203165</v>
+      </c>
+      <c r="P25">
+        <v>0.004667233797203166</v>
+      </c>
+      <c r="Q25">
+        <v>0.03134749434444444</v>
+      </c>
+      <c r="R25">
+        <v>0.2821274491</v>
+      </c>
+      <c r="S25">
+        <v>8.832197385544503E-07</v>
+      </c>
+      <c r="T25">
+        <v>8.832197385544503E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.203068</v>
+      </c>
+      <c r="I26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.314158666666666</v>
+      </c>
+      <c r="N26">
+        <v>24.942476</v>
+      </c>
+      <c r="O26">
+        <v>0.08379059397414486</v>
+      </c>
+      <c r="P26">
+        <v>0.08379059397414489</v>
+      </c>
+      <c r="Q26">
+        <v>0.5627798573742222</v>
+      </c>
+      <c r="R26">
+        <v>5.065018716368</v>
+      </c>
+      <c r="S26">
+        <v>1.585639582647735E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.585639582647736E-05</v>
       </c>
     </row>
   </sheetData>
